--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1210.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1210.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.6886666190855516</v>
+        <v>1.171443343162537</v>
       </c>
       <c r="B1">
-        <v>1.285501179461631</v>
+        <v>2.22373366355896</v>
       </c>
       <c r="C1">
-        <v>4.469695091645127</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>3.136812772824889</v>
+        <v>2.330950021743774</v>
       </c>
       <c r="E1">
-        <v>1.590139001154531</v>
+        <v>1.22807776927948</v>
       </c>
     </row>
   </sheetData>
